--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1010,13 +1010,6 @@
     <t>Send Q&amp;A Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">- Items:
-+ "Q&amp;A" textbox
-+ "Email" textbox
-+ "Mã xác nhận" textbox
-</t>
-  </si>
-  <si>
     <t>Input information</t>
   </si>
   <si>
@@ -1032,19 +1025,10 @@
     <t>Input Q&amp;A  in "Q&amp;A" textbox</t>
   </si>
   <si>
-    <t>Can type max 1000 characters</t>
-  </si>
-  <si>
-    <t>Can type max 100 characters</t>
-  </si>
-  <si>
     <t>Input email in "Email" textbox</t>
   </si>
   <si>
     <t>Input capcha in "Mã xác nhận" textbox</t>
-  </si>
-  <si>
-    <t>Input the verification code</t>
   </si>
   <si>
     <t>Send Q&amp;A</t>
@@ -1070,6 +1054,19 @@
     <t>- Web title: Send Q&amp;A
 - Display normally, there is not push, breaking font
 - Display text, textbox, button, color, background and arrangement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Display full item
+- Title is centered
+- All items (text and textbox, button) is left-aligned
+- Text's color is black and  required fields marked in red, title's color is blue
+</t>
+  </si>
+  <si>
+    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
   </si>
 </sst>
 </file>
@@ -3069,6 +3066,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3086,27 +3104,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6277,14 +6274,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6299,12 +6296,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6316,12 +6313,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6330,15 +6327,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
+      <c r="C6" s="107" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6347,11 +6344,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6374,10 +6371,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6395,10 +6392,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="103" t="s">
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6412,8 +6409,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6421,8 +6418,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6430,8 +6427,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6439,8 +6436,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6448,8 +6445,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6457,8 +6454,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6466,12 +6463,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6479,6 +6470,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6495,7 +6492,7 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6688,10 +6685,10 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="44" customFormat="1" ht="67.5">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="44" customFormat="1" ht="81">
       <c r="A10" s="47"/>
       <c r="B10" s="48"/>
       <c r="C10" s="49" t="s">
@@ -6716,7 +6713,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6746,7 +6743,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6765,7 +6762,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6777,10 +6774,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6793,7 +6790,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6805,10 +6802,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
@@ -6821,7 +6818,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6833,10 +6830,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6848,7 +6845,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6867,7 +6864,7 @@
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6879,10 +6876,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="L17" s="56" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27">
@@ -6899,10 +6896,10 @@
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
       <c r="K18" s="59" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="L18" s="56" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
@@ -551,7 +551,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="158">
   <si>
     <t>SST Test viewpoint</t>
   </si>
@@ -1056,17 +1056,14 @@
 - Display text, textbox, button, color, background and arrangement</t>
   </si>
   <si>
+    <t xml:space="preserve">Word that user input is displayed </t>
+  </si>
+  <si>
     <t xml:space="preserve">- Display full item
-- Title is centered
+- Title is centered, color is blue
 - All items (text and textbox, button) is left-aligned
 - Text's color is black and  required fields marked in red, title's color is blue
 </t>
-  </si>
-  <si>
-    <t>Word that user input is displayed and user cannot input more than 100 characters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Word that user input is displayed </t>
   </si>
 </sst>
 </file>
@@ -3066,6 +3063,24 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3086,24 +3101,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="24" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3500,22 +3497,22 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>5760</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3535,16 +3532,13 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2943225" y="133350"/>
-          <a:ext cx="5267325" cy="4086225"/>
+          <a:off x="2628900" y="733426"/>
+          <a:ext cx="3838575" cy="3577634"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
             <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -3552,16 +3546,6 @@
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -6274,14 +6258,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="109"/>
+      <c r="F2" s="109"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6296,12 +6280,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="105" t="s">
+      <c r="C4" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="105"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="105"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6313,12 +6297,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="105" t="s">
+      <c r="C5" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="105"/>
-      <c r="E5" s="105"/>
-      <c r="F5" s="105"/>
+      <c r="D5" s="111"/>
+      <c r="E5" s="111"/>
+      <c r="F5" s="111"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6327,15 +6311,15 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="106" t="s">
+      <c r="B6" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="107" t="s">
+      <c r="C6" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="107"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
@@ -6344,11 +6328,11 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="106"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="107"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6371,10 +6355,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="101" t="s">
+      <c r="C9" s="107" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="102"/>
+      <c r="D9" s="108"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6392,10 +6376,10 @@
       <c r="B10" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="104"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6409,8 +6393,8 @@
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="111"/>
+      <c r="C11" s="103"/>
+      <c r="D11" s="104"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6418,8 +6402,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="113"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6427,8 +6411,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="110"/>
-      <c r="D13" s="111"/>
+      <c r="C13" s="103"/>
+      <c r="D13" s="104"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6436,8 +6420,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="111"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="104"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6445,8 +6429,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="111"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="104"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6454,8 +6438,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="108"/>
-      <c r="D16" s="109"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6463,6 +6447,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6470,12 +6460,6 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6492,7 +6476,7 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6713,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6777,7 +6761,7 @@
         <v>146</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6805,7 +6789,7 @@
         <v>147</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
@@ -6833,7 +6817,7 @@
         <v>148</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -7989,7 +7973,7 @@
   <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
+++ b/trunk/WIP/Users/TuanNNSE02189/test view point/UJD_VN_TestViewpoint_Send Q&A_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="11760" windowHeight="5490"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -995,9 +995,6 @@
     <t>MinhPTSE02300</t>
   </si>
   <si>
-    <t>15/7/2014</t>
-  </si>
-  <si>
     <t>UJD_VN_Software requirement specification_v1.0</t>
   </si>
   <si>
@@ -1064,6 +1061,9 @@
 - All items (text and textbox, button) is left-aligned
 - Text's color is black and  required fields marked in red, title's color is blue
 </t>
+  </si>
+  <si>
+    <t>16/6/2014</t>
   </si>
 </sst>
 </file>
@@ -3063,6 +3063,27 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3080,27 +3101,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="64" fillId="30" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -6238,8 +6238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -6258,14 +6258,14 @@
     <row r="2" spans="1:8" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="109" t="s">
+      <c r="C2" s="103" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="109"/>
-      <c r="E2" s="109"/>
-      <c r="F2" s="109"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1">
       <c r="B3" s="6"/>
@@ -6280,12 +6280,12 @@
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="105" t="s">
         <v>133</v>
       </c>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="111"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="105"/>
+      <c r="F4" s="105"/>
       <c r="G4" s="12" t="s">
         <v>2</v>
       </c>
@@ -6297,12 +6297,12 @@
       <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="111" t="s">
+      <c r="C5" s="105" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="111"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="105"/>
+      <c r="F5" s="105"/>
       <c r="G5" s="12" t="s">
         <v>4</v>
       </c>
@@ -6311,28 +6311,28 @@
       </c>
     </row>
     <row r="6" spans="1:8" ht="15.75" customHeight="1">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="113" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="C6" s="107" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="107"/>
+      <c r="E6" s="107"/>
+      <c r="F6" s="107"/>
       <c r="G6" s="12" t="s">
         <v>6</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>137</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="13.5" customHeight="1">
-      <c r="B7" s="112"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="107"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="107"/>
+      <c r="F7" s="107"/>
       <c r="G7" s="12" t="s">
         <v>7</v>
       </c>
@@ -6355,10 +6355,10 @@
       <c r="B9" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="107" t="s">
+      <c r="C9" s="101" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="108"/>
+      <c r="D9" s="102"/>
       <c r="E9" s="19" t="s">
         <v>11</v>
       </c>
@@ -6374,12 +6374,12 @@
     </row>
     <row r="10" spans="1:8" s="21" customFormat="1" ht="25.5">
       <c r="B10" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="104"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="23" t="s">
         <v>15</v>
       </c>
@@ -6388,13 +6388,13 @@
         <v>16</v>
       </c>
       <c r="H10" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:8" s="21" customFormat="1" ht="13.5" customHeight="1">
       <c r="B11" s="27"/>
-      <c r="C11" s="103"/>
-      <c r="D11" s="104"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="111"/>
       <c r="E11" s="23"/>
       <c r="F11" s="24"/>
       <c r="G11" s="25"/>
@@ -6402,8 +6402,8 @@
     </row>
     <row r="12" spans="1:8" s="21" customFormat="1">
       <c r="B12" s="29"/>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="30"/>
       <c r="F12" s="24"/>
       <c r="G12" s="25"/>
@@ -6411,8 +6411,8 @@
     </row>
     <row r="13" spans="1:8" s="21" customFormat="1">
       <c r="B13" s="29"/>
-      <c r="C13" s="103"/>
-      <c r="D13" s="104"/>
+      <c r="C13" s="110"/>
+      <c r="D13" s="111"/>
       <c r="E13" s="30"/>
       <c r="F13" s="24"/>
       <c r="G13" s="31"/>
@@ -6420,8 +6420,8 @@
     </row>
     <row r="14" spans="1:8" s="21" customFormat="1">
       <c r="B14" s="29"/>
-      <c r="C14" s="103"/>
-      <c r="D14" s="104"/>
+      <c r="C14" s="110"/>
+      <c r="D14" s="111"/>
       <c r="E14" s="30"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -6429,8 +6429,8 @@
     </row>
     <row r="15" spans="1:8" s="21" customFormat="1">
       <c r="B15" s="29"/>
-      <c r="C15" s="103"/>
-      <c r="D15" s="104"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="111"/>
       <c r="E15" s="30"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -6438,8 +6438,8 @@
     </row>
     <row r="16" spans="1:8" ht="13.5" thickBot="1">
       <c r="B16" s="32"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
+      <c r="C16" s="108"/>
+      <c r="D16" s="109"/>
       <c r="E16" s="33"/>
       <c r="F16" s="34"/>
       <c r="G16" s="35"/>
@@ -6447,12 +6447,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:F7"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="C11:D11"/>
@@ -6460,6 +6454,12 @@
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:F7"/>
   </mergeCells>
   <pageMargins left="0.47013888888888888" right="0.47013888888888888" top="0.5" bottom="0.35138888888888886" header="0.51180555555555562" footer="0.1701388888888889"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6475,7 +6475,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -6597,7 +6597,7 @@
         <v>1</v>
       </c>
       <c r="D6" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
@@ -6669,7 +6669,7 @@
         <v>38</v>
       </c>
       <c r="L9" s="59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="44" customFormat="1" ht="81">
@@ -6697,7 +6697,7 @@
         <v>41</v>
       </c>
       <c r="L10" s="59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="44" customFormat="1">
@@ -6727,7 +6727,7 @@
       <c r="D12" s="60"/>
       <c r="E12" s="61"/>
       <c r="F12" s="51" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G12" s="52"/>
       <c r="H12" s="52"/>
@@ -6746,7 +6746,7 @@
       <c r="E13" s="56"/>
       <c r="F13" s="62"/>
       <c r="G13" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H13" s="49" t="s">
         <v>35</v>
@@ -6758,10 +6758,10 @@
         <v>37</v>
       </c>
       <c r="K13" s="56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L13" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14" spans="1:12" s="44" customFormat="1" ht="30" customHeight="1">
@@ -6774,7 +6774,7 @@
       <c r="E14" s="56"/>
       <c r="F14" s="62"/>
       <c r="G14" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H14" s="49" t="s">
         <v>35</v>
@@ -6786,10 +6786,10 @@
         <v>37</v>
       </c>
       <c r="K14" s="56" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L14" s="62" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="44" customFormat="1" ht="24.75" customHeight="1">
@@ -6802,7 +6802,7 @@
       <c r="E15" s="64"/>
       <c r="F15" s="63"/>
       <c r="G15" s="63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H15" s="49" t="s">
         <v>35</v>
@@ -6814,10 +6814,10 @@
         <v>37</v>
       </c>
       <c r="K15" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L15" s="56" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="44" customFormat="1" ht="18.75" customHeight="1">
@@ -6829,7 +6829,7 @@
       <c r="D16" s="60"/>
       <c r="E16" s="61"/>
       <c r="F16" s="51" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G16" s="52"/>
       <c r="H16" s="52"/>
@@ -6848,7 +6848,7 @@
       <c r="E17" s="63"/>
       <c r="F17" s="56"/>
       <c r="G17" s="56" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" s="49" t="s">
         <v>35</v>
@@ -6860,10 +6860,10 @@
         <v>37</v>
       </c>
       <c r="K17" s="59" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="56" t="s">
         <v>151</v>
-      </c>
-      <c r="L17" s="56" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:12" s="44" customFormat="1" ht="27">
@@ -6880,10 +6880,10 @@
       <c r="I18" s="57"/>
       <c r="J18" s="58"/>
       <c r="K18" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="L18" s="56" t="s">
         <v>153</v>
-      </c>
-      <c r="L18" s="56" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:12" s="44" customFormat="1" ht="38.25" customHeight="1">
@@ -7980,7 +7980,7 @@
   <sheetData>
     <row r="2" spans="1:1" ht="15">
       <c r="A2" s="80" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
